--- a/StarkBankMVP/StarkBankMVP.xlsx
+++ b/StarkBankMVP/StarkBankMVP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark - Admin\Documents\StarkBankMVP\StarkBankMVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A1E88B-7C12-4C52-802E-DE02A5CBE811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735968A3-3F80-47A8-A1FA-CADAFCB4F4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="5" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>Chave Pix</t>
   </si>
@@ -195,15 +195,6 @@
     <t>Id da Transação</t>
   </si>
   <si>
-    <t>Data de Crédito</t>
-  </si>
-  <si>
-    <t>Linha Digitável</t>
-  </si>
-  <si>
-    <t>Id do Boleto</t>
-  </si>
-  <si>
     <t>Logradouro</t>
   </si>
   <si>
@@ -220,6 +211,18 @@
   </si>
   <si>
     <t>CEP</t>
+  </si>
+  <si>
+    <t>Data de Emissão</t>
+  </si>
+  <si>
+    <t>Data de Credito</t>
+  </si>
+  <si>
+    <t>Linha digitavel</t>
+  </si>
+  <si>
+    <t>Id fo boleto</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -453,6 +456,23 @@
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -465,23 +485,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3096"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -559,7 +562,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -572,6 +575,57 @@
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BD6BA4211BC3E14DAF185961A2B376D133421"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -588,12 +642,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -605,63 +659,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BD6BA4211BC3E14DAF185961A2B376D133421"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2377,8 +2380,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId10" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId12" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId12" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId14" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId16" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId16" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId18" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -2397,182 +2575,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId18" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId18" name="_ActiveXWrapper1"/>
+        <control shapeId="1041" r:id="rId18" name="_ActiveXWrapper8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2754,8 +2757,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="3074" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2774,32 +2802,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>333375</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="3073" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2900,7 +2903,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,43 +2923,43 @@
     <row r="8" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="L9" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>32</v>
@@ -2968,22 +2971,22 @@
         <v>33</v>
       </c>
       <c r="Q9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="U9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="V9" s="21" t="s">
         <v>55</v>
-      </c>
-      <c r="T9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="U9" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="V9" s="21" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
